--- a/Tech Cube/Documents/Tech Cube - BOM.xlsx
+++ b/Tech Cube/Documents/Tech Cube - BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maltwhiskey/Library/Mobile Documents/com~apple~CloudDocs/Documents/Projects/Technasium Projects/Tech Cube/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielVos\Documents\Technasium\Projecten\Technasium\Cube\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D77016-5C1D-DB42-BE88-AFA6C6591DC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA6CD62-1597-450D-B4C0-579CC8348E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14140" activeTab="2" xr2:uid="{AB3AD9CE-564C-2A4A-97CD-F7C14CAA2AA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB3AD9CE-564C-2A4A-97CD-F7C14CAA2AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost per  LL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>Solder</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Glue</t>
   </si>
   <si>
-    <t>Hotglue</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>Conrad</t>
   </si>
   <si>
-    <t>Power extension</t>
-  </si>
-  <si>
     <t>Cable</t>
   </si>
   <si>
@@ -224,9 +218,6 @@
     <t>Units/LL</t>
   </si>
   <si>
-    <t>Eleshop</t>
-  </si>
-  <si>
     <t>Total/LL</t>
   </si>
   <si>
@@ -257,24 +248,12 @@
     <t>Storage</t>
   </si>
   <si>
-    <t>Coaster</t>
-  </si>
-  <si>
     <t>For soldering</t>
   </si>
   <si>
     <t>Total LL</t>
   </si>
   <si>
-    <t>Silent type</t>
-  </si>
-  <si>
-    <t>Leds</t>
-  </si>
-  <si>
-    <t>RGB</t>
-  </si>
-  <si>
     <t>Test RGB/WS2811</t>
   </si>
   <si>
@@ -317,7 +296,49 @@
     <t>Drill bit</t>
   </si>
   <si>
-    <t>0,8 mm</t>
+    <t>Power extension 4 sockets</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>1 per table</t>
+  </si>
+  <si>
+    <t>In biology cabinet A2.10</t>
+  </si>
+  <si>
+    <t>Rene</t>
+  </si>
+  <si>
+    <t>For adjustment on 3D prints</t>
+  </si>
+  <si>
+    <t>Hardboard</t>
+  </si>
+  <si>
+    <t>To protect tables</t>
+  </si>
+  <si>
+    <t>Left over from other projects</t>
+  </si>
+  <si>
+    <t>RGB LED</t>
+  </si>
+  <si>
+    <t>Common anode</t>
+  </si>
+  <si>
+    <t>0,8mm</t>
+  </si>
+  <si>
+    <t>FA-400</t>
+  </si>
+  <si>
+    <t>Hotglue (bol.com)</t>
+  </si>
+  <si>
+    <t>BTW</t>
   </si>
 </sst>
 </file>
@@ -343,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +374,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,15 +402,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -692,29 +726,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281581AA-3171-AF45-916C-602E746CB626}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="13" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -729,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -738,13 +774,13 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>33</v>
@@ -752,18 +788,23 @@
       <c r="N1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="O1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>45009</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>45023</v>
+      </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -774,42 +815,44 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
       <c r="J2" s="2">
         <f>G2*H2</f>
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K16" si="0">H2/I2</f>
-        <v>7.8000000000000005E-3</v>
+        <f t="shared" ref="K2:K17" si="0">H2/I2</f>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M16" si="1">IF(L2="","",L2*K2)</f>
-        <v>1.5600000000000001E-2</v>
-      </c>
-      <c r="N2" s="6">
+        <f t="shared" ref="M2:M17" si="1">IF(L2="","",L2*K2)</f>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="N2" s="5">
         <f>I2/L2*G2</f>
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>45009</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>45023</v>
+      </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
@@ -826,7 +869,7 @@
         <v>50</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J16" si="2">G3*H3</f>
+        <f t="shared" ref="J3:J17" si="2">G3*H3</f>
         <v>15.93</v>
       </c>
       <c r="K3" s="2">
@@ -840,22 +883,24 @@
         <f t="shared" si="1"/>
         <v>6.3719999999999999E-2</v>
       </c>
-      <c r="N3" s="6">
-        <f t="shared" ref="N3:N16" si="3">I3/L3*G3</f>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N17" si="3">I3/L3*G3</f>
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>45009</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>45023</v>
+      </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
@@ -887,27 +932,29 @@
         <f t="shared" si="1"/>
         <v>2.2532000000000001</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>45009</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>45023</v>
+      </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -933,27 +980,29 @@
         <f t="shared" si="1"/>
         <v>1.9799999999999998E-2</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>45009</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>45023</v>
+      </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -979,27 +1028,29 @@
         <f t="shared" si="1"/>
         <v>1.9560000000000001E-2</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <f t="shared" si="3"/>
         <v>166.66666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>45009</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>45023</v>
+      </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1025,22 +1076,24 @@
         <f t="shared" si="1"/>
         <v>2.0333333333333332E-2</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>45009</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>45030</v>
+      </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
@@ -1068,25 +1121,30 @@
         <v>64</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(L8="","",L8*K8)</f>
         <v>4.2028800000000004</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <f t="shared" si="3"/>
         <v>46.875</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="O8" s="7">
+        <v>62.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>45009</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>45023</v>
+      </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
@@ -1117,17 +1175,17 @@
         <f t="shared" si="1"/>
         <v>2.0099999999999996E-2</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1135,7 +1193,7 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1161,17 +1219,17 @@
         <f t="shared" si="1"/>
         <v>0.97375</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1179,7 +1237,7 @@
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1205,17 +1263,17 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>44999</v>
@@ -1227,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1253,17 +1311,17 @@
         <f t="shared" si="1"/>
         <v>0.33130000000000004</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>44999</v>
@@ -1275,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1301,31 +1359,35 @@
         <f t="shared" si="1"/>
         <v>0.29155000000000003</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45016</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45024</v>
+      </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" s="2">
-        <f>30.99</f>
-        <v>30.99</v>
+        <v>29.65</v>
       </c>
       <c r="I14">
         <f>110</f>
@@ -1333,44 +1395,48 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>154.94999999999999</v>
+        <v>148.25</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>0.28172727272727272</v>
+        <v>0.26954545454545453</v>
       </c>
       <c r="L14">
         <v>10</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="1"/>
-        <v>2.8172727272727274</v>
-      </c>
-      <c r="N14" s="6">
+        <v>2.6954545454545453</v>
+      </c>
+      <c r="N14" s="5">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45016</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45024</v>
+      </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <f>30.99</f>
-        <v>30.99</v>
+        <v>22.99</v>
       </c>
       <c r="I15">
         <f>70</f>
@@ -1378,81 +1444,130 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>154.94999999999999</v>
+        <v>22.99</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>0.44271428571428567</v>
+        <v>0.3284285714285714</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="1"/>
-        <v>0.44271428571428567</v>
-      </c>
-      <c r="N15" s="6">
+        <v>0.3284285714285714</v>
+      </c>
+      <c r="N15" s="5">
         <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45016</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45029</v>
+      </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>46.46</v>
+        <v>48.02</v>
       </c>
       <c r="I16">
         <v>100</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>46.46</v>
+        <v>48.02</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>0.46460000000000001</v>
+        <v>0.48020000000000002</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="1"/>
-        <v>0.46460000000000001</v>
-      </c>
-      <c r="N16" s="6">
+        <v>0.48020000000000002</v>
+      </c>
+      <c r="N16" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45016</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45029</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>25.65</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>25.65</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5649999999999999E-2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>10</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J18" s="2"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1463,35 +1578,36 @@
       <c r="H20" s="4"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="3"/>
       <c r="M20" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I21" s="2"/>
       <c r="J21" s="2">
         <f>SUM(J2:J19)</f>
-        <v>882.1400000000001</v>
+        <v>770.69999999999993</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2">
         <f>SUM(M2:M19)</f>
-        <v>12.036380346320348</v>
-      </c>
-      <c r="N21" s="6">
+        <v>12.072576450216452</v>
+      </c>
+      <c r="N21" s="5">
         <f>MIN(N2:N19)</f>
         <v>46.875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1500,28 +1616,28 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="13" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1536,7 +1652,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -1545,22 +1661,28 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="L1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>45009</v>
       </c>
+      <c r="D2" s="1">
+        <v>45023</v>
+      </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
@@ -1573,7 +1695,7 @@
       <c r="H2" s="2">
         <v>16.739999999999998</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2">
         <v>10</v>
       </c>
       <c r="J2" s="2">
@@ -1586,16 +1708,19 @@
       </c>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>45009</v>
       </c>
+      <c r="D3" s="1">
+        <v>45023</v>
+      </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1733,7 @@
       <c r="H3" s="2">
         <v>19.34</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" s="2">
@@ -1621,16 +1746,19 @@
       </c>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>45009</v>
       </c>
+      <c r="D4" s="1">
+        <v>45023</v>
+      </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
@@ -1641,31 +1769,34 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>9.66</v>
-      </c>
-      <c r="I4" s="5">
+        <v>9.67</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>9.66</v>
+        <v>9.67</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="1"/>
-        <v>9.66</v>
+        <v>9.67</v>
       </c>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>45009</v>
       </c>
+      <c r="D5" s="1">
+        <v>45013</v>
+      </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
@@ -1678,7 +1809,7 @@
       <c r="H5" s="2">
         <v>19.260000000000002</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" s="2">
@@ -1691,15 +1822,18 @@
       </c>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>45009</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45023</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -1714,7 +1848,7 @@
         <f>385.14/7</f>
         <v>55.019999999999996</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" s="2">
@@ -1725,18 +1859,24 @@
         <f t="shared" si="1"/>
         <v>55.019999999999996</v>
       </c>
+      <c r="L6" s="7">
+        <v>30.64</v>
+      </c>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>45009</v>
       </c>
+      <c r="D7" s="1">
+        <v>45023</v>
+      </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
@@ -1749,7 +1889,7 @@
       <c r="H7" s="2">
         <v>30.83</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" s="2">
@@ -1763,119 +1903,183 @@
       <c r="M7"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45016</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45029</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2">
-        <v>50</v>
-      </c>
-      <c r="I8" s="5">
+        <v>28.52</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" s="2">
         <f>G8*H8</f>
-        <v>350</v>
+        <v>114.08</v>
       </c>
       <c r="K8" s="2">
         <f>H8/I8</f>
-        <v>50</v>
+        <v>28.52</v>
       </c>
       <c r="M8"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="2"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45016</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45029</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>29.26</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <f>G9*H9</f>
+        <v>87.78</v>
+      </c>
+      <c r="K9" s="2">
+        <f>H9/I9</f>
+        <v>29.26</v>
+      </c>
       <c r="M9"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45016</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45029</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <f>G10*H10</f>
+        <v>1.34</v>
+      </c>
+      <c r="K10" s="2">
+        <f>H10/I10</f>
+        <v>1.34</v>
+      </c>
       <c r="M10"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
       <c r="H11"/>
-      <c r="I11" s="5"/>
       <c r="J11" s="2"/>
       <c r="M11"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G12" s="2"/>
       <c r="H12"/>
-      <c r="I12" s="5"/>
       <c r="J12" s="2"/>
       <c r="M12"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="H13"/>
-      <c r="I13" s="5"/>
       <c r="J13" s="2"/>
       <c r="M13"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" s="2"/>
       <c r="H14"/>
-      <c r="I14" s="5"/>
       <c r="J14" s="2"/>
       <c r="M14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" s="2"/>
       <c r="H15"/>
-      <c r="I15" s="5"/>
       <c r="J15" s="2"/>
       <c r="M15"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
       <c r="H16"/>
-      <c r="I16" s="5"/>
       <c r="J16" s="2"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
       <c r="H17"/>
-      <c r="I17" s="5"/>
       <c r="J17" s="2"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G18" s="2"/>
       <c r="H18"/>
-      <c r="I18" s="5"/>
       <c r="J18" s="2"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G19" s="2"/>
       <c r="H19"/>
-      <c r="I19" s="5"/>
       <c r="J19" s="2"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1886,53 +2090,55 @@
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
       <c r="J20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K20" s="4"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G21" s="2"/>
       <c r="H21"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2">
         <f>SUM(J2:J19)</f>
-        <v>830.97</v>
+        <v>684.18</v>
       </c>
       <c r="M21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB8DC57-8DE7-3643-A203-26F5349DDB70}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="47.75" customWidth="1"/>
     <col min="13" max="13" width="13" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1946,8 +2152,8 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>58</v>
+      <c r="G1" t="s">
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -1956,18 +2162,21 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1">
         <v>44927</v>
@@ -1976,18 +2185,18 @@
         <v>44927</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="5">
-        <v>7</v>
+        <v>62</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" s="2">
@@ -1998,14 +2207,17 @@
         <f>H2/I2</f>
         <v>0</v>
       </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>44927</v>
@@ -2014,51 +2226,56 @@
         <v>44927</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="5">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J18" si="0">G3*H3</f>
+        <f t="shared" ref="J3:J16" si="0">G3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K18" si="1">H3/I3</f>
-        <v>0</v>
+        <f t="shared" ref="K3:K16" si="1">H3/I3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
       </c>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45013</v>
+      </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="5">
-        <v>7</v>
+        <v>86</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" s="2">
@@ -2069,29 +2286,37 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L4" t="s">
+        <v>88</v>
+      </c>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45014</v>
+      </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="5">
+        <v>42</v>
+      </c>
+      <c r="G5">
         <v>7</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" s="2">
@@ -2102,31 +2327,37 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>44927</v>
       </c>
+      <c r="D6" s="1">
+        <v>45029</v>
+      </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="5">
+        <v>66</v>
+      </c>
+      <c r="G6">
         <v>7</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" s="2">
@@ -2139,62 +2370,67 @@
       </c>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
-        <v>44927</v>
+        <v>45013</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45013</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="5">
-        <v>500</v>
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J7" si="2">G7*H7</f>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K7" si="3">H7/I7</f>
         <v>0</v>
       </c>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45013</v>
+      </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="5">
+        <v>68</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" s="2">
@@ -2204,31 +2440,37 @@
       <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
       </c>
       <c r="M8"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45013</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="5">
+        <v>83</v>
+      </c>
+      <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" s="2">
@@ -2242,27 +2484,32 @@
       <c r="M9"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45013</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45013</v>
+      </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="5">
-        <v>7</v>
+        <v>84</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" s="2">
@@ -2276,27 +2523,29 @@
       <c r="M10"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45013</v>
+      </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" s="2">
@@ -2306,30 +2555,39 @@
       <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
       </c>
       <c r="M11"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45013</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45013</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="5">
+        <v>75</v>
+      </c>
+      <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" s="2">
@@ -2339,33 +2597,39 @@
       <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>94</v>
       </c>
       <c r="M12"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>44927</v>
       </c>
+      <c r="D13" s="1">
+        <v>45013</v>
+      </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="5">
+        <v>72</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" s="2">
@@ -2379,29 +2643,32 @@
       <c r="M13"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
-        <v>44927</v>
+        <v>45013</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45013</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="5">
+        <v>74</v>
+      </c>
+      <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" s="2">
@@ -2415,29 +2682,32 @@
       <c r="M14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1">
-        <v>44927</v>
+        <v>45013</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45013</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="5">
+        <v>77</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" s="2">
@@ -2451,29 +2721,32 @@
       <c r="M15"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1">
-        <v>44927</v>
+        <v>45013</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45013</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="5">
+        <v>78</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" s="2">
@@ -2487,114 +2760,49 @@
       <c r="M16"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44927</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="J17" s="2"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44927</v>
-      </c>
-      <c r="E18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="J18" s="2"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H19"/>
-      <c r="I19" s="5"/>
       <c r="J19" s="2"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H20"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="2"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="4"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="4"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H21"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
+        <f>SUM(J2:J19)</f>
+        <v>0</v>
+      </c>
       <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H22"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2">
-        <f>SUM(J2:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="M22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tech Cube/Documents/Tech Cube - BOM.xlsx
+++ b/Tech Cube/Documents/Tech Cube - BOM.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielVos\Documents\Technasium\Projecten\Technasium\Cube\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielVos\Documents\Technasium\Projecten\Technasium\Tech Cube\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA6CD62-1597-450D-B4C0-579CC8348E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90E11ED-1999-4ED2-811F-E3B9B336633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB3AD9CE-564C-2A4A-97CD-F7C14CAA2AA2}"/>
+    <workbookView xWindow="7200" yWindow="1020" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{AB3AD9CE-564C-2A4A-97CD-F7C14CAA2AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost per  LL" sheetId="1" r:id="rId1"/>
     <sheet name="Cost new assets" sheetId="3" r:id="rId2"/>
     <sheet name="Cost current assets" sheetId="4" r:id="rId3"/>
+    <sheet name="2024" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Cost per  LL'!$A$1:$O$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="118">
   <si>
     <t>Solder</t>
   </si>
@@ -339,6 +343,57 @@
   </si>
   <si>
     <t>BTW</t>
+  </si>
+  <si>
+    <t>leerlingen</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Mathijs</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>Extra soldeerstation van boven</t>
+  </si>
+  <si>
+    <t>Van thuis meenemen</t>
+  </si>
+  <si>
+    <t>Binask</t>
+  </si>
+  <si>
+    <t>Reserve printen</t>
+  </si>
+  <si>
+    <t>Grote kleiner maken</t>
+  </si>
+  <si>
+    <t>Bak voor spullen</t>
+  </si>
+  <si>
+    <t>Reserve maken</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>4 Sockets + USB</t>
+  </si>
+  <si>
+    <t>IKEA</t>
   </si>
 </sst>
 </file>
@@ -430,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -470,7 +525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -576,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -718,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,10 +781,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281581AA-3171-AF45-916C-602E746CB626}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1607,16 +1665,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8CA854-EC30-234D-B813-92F588BADCD5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E2" sqref="E2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2107,16 +2168,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB8DC57-8DE7-3643-A203-26F5349DDB70}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2803,6 +2867,509 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1FA3A9-876F-4DCC-924F-C928D3AD1BD2}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>400</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>